--- a/业绩报表/688063.xlsx
+++ b/业绩报表/688063.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>SECURITY_CODE</t>
   </si>
@@ -139,7 +139,10 @@
     <t>2020-12-10 00:00:00</t>
   </si>
   <si>
-    <t>2020-09-30 00:00:00</t>
+    <t>2019-09-30 00:00:00</t>
+  </si>
+  <si>
+    <t>机械行业</t>
   </si>
   <si>
     <t>10431951</t>
@@ -148,16 +151,16 @@
     <t>0102</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2020Q3</t>
-  </si>
-  <si>
-    <t>2020年 三季报</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2019Q3</t>
+  </si>
+  <si>
+    <t>2019年 三季报</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
   <si>
     <t>三季报</t>
@@ -660,64 +663,49 @@
         <v>41</v>
       </c>
       <c r="I2">
-        <v>1.69</v>
-      </c>
-      <c r="J2">
-        <v>1.67</v>
+        <v>0.64</v>
       </c>
       <c r="K2">
-        <v>808442038.52</v>
+        <v>473770838.67</v>
       </c>
       <c r="L2">
-        <v>196713958.54</v>
-      </c>
-      <c r="M2">
-        <v>36.22</v>
-      </c>
-      <c r="N2">
-        <v>70.63989011850001</v>
-      </c>
-      <c r="O2">
-        <v>178.5</v>
-      </c>
-      <c r="P2">
-        <v>5.526266323726</v>
-      </c>
-      <c r="Q2">
-        <v>1.931652568174</v>
+        <v>70633613.45999999</v>
       </c>
       <c r="R2">
-        <v>45.0671138412</v>
+        <v>33.8102682174</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
       </c>
       <c r="Y2" t="s">
         <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AE2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
